--- a/public/templates/employee-import-template-minimal.xlsx
+++ b/public/templates/employee-import-template-minimal.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,6 @@
     <col min="18" max="18" width="20.83203125" customWidth="1"/>
     <col min="19" max="19" width="20.83203125" customWidth="1"/>
     <col min="20" max="20" width="20.83203125" customWidth="1"/>
-    <col min="21" max="21" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,31 +463,28 @@
         <v>Nature du contrat*</v>
       </c>
       <c r="M1" t="str">
+        <v>Date de fin de contrat**</v>
+      </c>
+      <c r="N1" t="str">
         <v>Fréquence de paiement*</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>Fonction*</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>Catégorie*</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>Salaire Catégoriel*</v>
       </c>
-      <c r="Q1" t="str">
-        <v>Sursalaire*</v>
-      </c>
       <c r="R1" t="str">
-        <v>Régime horaire*</v>
+        <v>Régime horaire**</v>
       </c>
       <c r="S1" t="str">
         <v>Indemnité de transport*</v>
       </c>
       <c r="T1" t="str">
         <v>Site de travail*</v>
-      </c>
-      <c r="U1" t="str">
-        <v>N° CNPS*</v>
       </c>
     </row>
     <row r="2">
@@ -529,31 +525,28 @@
         <v>CDI/CDD/CDDTI/INTERIM/STAGE</v>
       </c>
       <c r="M2" t="str">
-        <v>MONTHLY/WEEKLY/BIWEEKLY/DAILY</v>
+        <v>JJ/MM/AAAA - Requis pour CDD/CDDTI</v>
       </c>
       <c r="N2" t="str">
+        <v>Mensuelle/Hebdomadaire/Bimensuelle/Journalière</v>
+      </c>
+      <c r="O2" t="str">
         <v>Ex: Responsable RH</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>Ex: C, M1, 1A, 2B - voir barème CGECI</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>Ex: 150000 - REQUIS pour la paie</v>
       </c>
-      <c r="Q2" t="str">
-        <v>Ex: 50000 (0 si aucun)</v>
-      </c>
       <c r="R2" t="str">
-        <v>Ex: 40 (heures/semaine). Valeurs courantes: 35, 39, 40, 45, 48</v>
+        <v>Ex: 40 (heures/semaine) - Requis pour CDDTI</v>
       </c>
       <c r="S2" t="str">
         <v>Ex: 35000 - Minimum: Abidjan 30k, Bouaké 24k, Autres 20k</v>
       </c>
       <c r="T2" t="str">
         <v>Ex: Abidjan Plateau</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Ex: 1234567</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +587,19 @@
         <v>CDI</v>
       </c>
       <c r="M3" t="str">
-        <v>MONTHLY</v>
+        <v/>
       </c>
       <c r="N3" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="O3" t="str">
         <v>Directeur Général</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>C</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>500000</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>200000</v>
       </c>
       <c r="R3" t="str">
         <v>40</v>
@@ -616,9 +609,6 @@
       </c>
       <c r="T3" t="str">
         <v>Abidjan Plateau</v>
-      </c>
-      <c r="U3" t="str">
-        <v>1234567</v>
       </c>
     </row>
     <row r="4">
@@ -659,19 +649,19 @@
         <v>CDD</v>
       </c>
       <c r="M4" t="str">
-        <v>MONTHLY</v>
+        <v>31/12/2024</v>
       </c>
       <c r="N4" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="O4" t="str">
         <v>Assistante Administrative</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <v>2A</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <v>120000</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>30000</v>
       </c>
       <c r="R4" t="str">
         <v>40</v>
@@ -681,9 +671,6 @@
       </c>
       <c r="T4" t="str">
         <v>Abidjan Marcory</v>
-      </c>
-      <c r="U4" t="str">
-        <v>2345678</v>
       </c>
     </row>
     <row r="5">
@@ -724,19 +711,19 @@
         <v>CDI</v>
       </c>
       <c r="M5" t="str">
-        <v>MONTHLY</v>
+        <v/>
       </c>
       <c r="N5" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="O5" t="str">
         <v>Directeur Financier</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <v>C</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <v>600000</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>300000</v>
       </c>
       <c r="R5" t="str">
         <v>40</v>
@@ -747,20 +734,17 @@
       <c r="T5" t="str">
         <v>Abidjan Plateau</v>
       </c>
-      <c r="U5" t="str">
-        <v>3456789</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,7 +819,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">  • Fréquence de paiement - MONTHLY, WEEKLY, BIWEEKLY, ou DAILY</v>
+        <v xml:space="preserve">  • Fréquence de paiement - Mensuelle, Hebdomadaire, Bimensuelle, ou Journalière</v>
       </c>
     </row>
     <row r="15">
@@ -850,127 +834,127 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve">  • N° CNPS - Numéro de sécurité sociale</v>
+        <v xml:space="preserve">  • Salaire Catégoriel - Salaire de base REQUIS pour la paie</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve">  • Salaire Catégoriel - Salaire de base REQUIS pour la paie</v>
+        <v xml:space="preserve">  • Indemnité de transport - Minimum 20k (autres), 24k (Bouaké), 30k (Abidjan)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve">  • Indemnité de transport - Minimum 20k (autres), 24k (Bouaké), 30k (Abidjan)</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v/>
+        <v>📋 Champs conditionnels (marqués avec **)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>✅ Champs recommandés</v>
+        <v xml:space="preserve">  • Date de fin de contrat** - REQUIS pour les contrats CDD et CDDTI</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">  • N° CMU - Requis si l'employé a une couverture CMU</v>
+        <v xml:space="preserve">  • Régime horaire** - REQUIS pour les contrats CDDTI (tâche définie)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">  • Couverture Maladie - Type d'assurance santé (CMU, assurance privée, ou nom de l'assureur)</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve">  • Date début couverture - Date d'effet de l'assurance (sinon date d'embauche)</v>
+        <v>📝 Champs optionnels</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve">  • Zone Nationalité - Pour les statistiques (LOCAL/CEDEAO/HORS_CEDEAO)</v>
+        <v xml:space="preserve">  • N° CNPS - Numéro de sécurité sociale (peut être ajouté plus tard)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve">  • Lieu de naissance - Requis pour certains documents officiels</v>
+        <v xml:space="preserve">  • Sursalaire - Prime salariale (0 si aucun)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve">  • Noms des parents - Requis pour le registre du personnel</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve">  • Contact urgence - Important en cas d'accident</v>
+        <v>✅ Champs recommandés</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve">  • Banque et RIB - Pour les virements de salaire</v>
+        <v xml:space="preserve">  • N° CMU - Requis si l'employé a une couverture CMU</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v xml:space="preserve">  • Couverture Maladie - Type d'assurance santé (CMU, assurance privée, ou nom de l'assureur)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>📅 Format des dates</v>
+        <v xml:space="preserve">  • Date début couverture - Date d'effet de l'assurance (sinon date d'embauche)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve">  • Utilisez le format JJ/MM/AAAA</v>
+        <v xml:space="preserve">  • Zone Nationalité - Pour les statistiques (LOCAL/CEDEAO/HORS_CEDEAO)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">  • Exemples: 01/01/2020, 15/06/2023, 31/12/2024</v>
+        <v xml:space="preserve">  • Lieu de naissance - Requis pour certains documents officiels</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">  • Assurez-vous que la cellule est au format "Texte" ou "Date"</v>
+        <v xml:space="preserve">  • Noms des parents - Requis pour le registre du personnel</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v xml:space="preserve">  • Contact urgence - Important en cas d'accident</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>🔢 Catégories professionnelles</v>
+        <v xml:space="preserve">  • Banque et RIB - Pour les virements de salaire</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">  • C = Cadre (coefficient ≥ 1000)</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve">  • M1 = Maîtrise niveau 1 (coefficient 700-999)</v>
+        <v>📅 Format des dates</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">  • M2 = Maîtrise niveau 2 (coefficient 500-699)</v>
+        <v xml:space="preserve">  • Utilisez le format JJ/MM/AAAA</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v xml:space="preserve">  • 1A, 1B, 2A, 2B, etc. = Employés et ouvriers</v>
+        <v xml:space="preserve">  • Exemples: 01/01/2020, 15/06/2023, 31/12/2024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve">  • Voir le barème CGECI 2023 pour plus de détails</v>
+        <v xml:space="preserve">  • Assurez-vous que la cellule est au format "Texte" ou "Date"</v>
       </c>
     </row>
     <row r="42">
@@ -980,132 +964,167 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>⚠️ Erreurs courantes à éviter</v>
+        <v>🔢 Catégories professionnelles</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve">  • Matricules en double - Chaque employé doit avoir un matricule unique</v>
+        <v xml:space="preserve">  • C = Cadre (coefficient ≥ 1000)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve">  • Dates invalides - Vérifiez le format JJ/MM/AAAA</v>
+        <v xml:space="preserve">  • M1 = Maîtrise niveau 1 (coefficient 700-999)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve">  • Manager inexistant - Le matricule du manager doit exister dans la liste</v>
+        <v xml:space="preserve">  • M2 = Maîtrise niveau 2 (coefficient 500-699)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">  • N° CNPS invalide - Doit contenir 7 à 10 chiffres</v>
+        <v xml:space="preserve">  • 1A, 1B, 2A, 2B, etc. = Employés et ouvriers</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve">  • Email invalide - Doit contenir @ et un domaine</v>
+        <v xml:space="preserve">  • Voir le barème CGECI 2023 pour plus de détails</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve">  • RIB invalide - Format: CI93 suivi de 26-30 caractères</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>⚠️ Erreurs courantes à éviter</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>💡 Conseils</v>
+        <v xml:space="preserve">  • Matricules en double - Chaque employé doit avoir un matricule unique</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve">  • Commencez par les 3 exemples fournis pour comprendre le format</v>
+        <v xml:space="preserve">  • Dates invalides - Vérifiez le format JJ/MM/AAAA</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">  • Remplissez d'abord les champs obligatoires (*)</v>
+        <v xml:space="preserve">  • Manager inexistant - Le matricule du manager doit exister dans la liste</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">  • Ajoutez les champs recommandés pour une meilleure conformité</v>
+        <v xml:space="preserve">  • N° CNPS invalide - Doit contenir 7 à 10 chiffres</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve">  • Laissez les cellules vides si vous n'avez pas l'information</v>
+        <v xml:space="preserve">  • Email invalide - Doit contenir @ et un domaine</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">  • Vous pourrez toujours compléter les informations plus tard</v>
+        <v xml:space="preserve">  • RIB invalide - Format: CI93 suivi de 26-30 caractères</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">  • Indemnité de transport: minimums légaux 20k (autres villes), 24k (Bouaké), 30k (Abidjan). Vous pouvez saisir un montant supérieur.</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v/>
+        <v>💡 Conseils</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>🆘 Besoin d'aide?</v>
+        <v xml:space="preserve">  • Commencez par les 3 exemples fournis pour comprendre le format</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve">  • Si vous rencontrez des difficultés, choisissez l'assistance WhatsApp</v>
+        <v xml:space="preserve">  • Remplissez d'abord les champs obligatoires (*)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve">  • Notre équipe vous aidera à préparer et importer vos données</v>
+        <v xml:space="preserve">  • Ajoutez les champs recommandés pour une meilleure conformité</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve">  • Service gratuit pendant votre période d'essai</v>
+        <v xml:space="preserve">  • Laissez les cellules vides si vous n'avez pas l'information</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">  • Contact: +225 07 08 78 68 28</v>
+        <v xml:space="preserve">  • Vous pourrez toujours compléter les informations plus tard</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v/>
+        <v xml:space="preserve">  • Indemnité de transport: minimums légaux 20k (autres villes), 24k (Bouaké), 30k (Abidjan). Vous pouvez saisir un montant supérieur.</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>💡 Besoin de plus de champs?</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v xml:space="preserve">  • Téléchargez le "Modèle Complet" (46 champs) pour un registre du personnel exhaustif</v>
+        <v>🆘 Besoin d'aide?</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v xml:space="preserve">  • Si vous rencontrez des difficultés, choisissez l'assistance WhatsApp</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">  • Notre équipe vous aidera à préparer et importer vos données</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve">  • Service gratuit pendant votre période d'essai</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve">  • Contact: +225 07 08 78 68 28</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>💡 Besoin de plus de champs?</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve">  • Téléchargez le "Modèle Complet" (46 champs) pour un registre du personnel exhaustif</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
         <v xml:space="preserve">  • Vous pouvez toujours compléter les informations manquantes dans l'application</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A74"/>
   </ignoredErrors>
 </worksheet>
 </file>